--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_9_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_9_sawtooth_0_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.3022898094496416, 10.002362145156638]</t>
+          <t>[3.1733355082536896, 10.13131644635259]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0001251317882000613</v>
+        <v>0.0002166299970589591</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0001251317882000613</v>
+        <v>0.0002166299970589591</v>
       </c>
       <c r="O2" t="n">
         <v>-1.283052855520156</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8742634850245414, -0.69184222601577]</t>
+          <t>[-1.8994213841523875, -0.6666843268879239]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.956288192867973e-05</v>
+        <v>5.981502217400347e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>2.956288192867973e-05</v>
+        <v>5.981502217400347e-05</v>
       </c>
       <c r="S2" t="n">
         <v>9.300744407735417</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.338190543313969, 11.263298272156865]</t>
+          <t>[7.33929114767809, 11.262197667792744]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>5.278678678678801</v>
       </c>
       <c r="X2" t="n">
-        <v>2.846346346346411</v>
+        <v>2.742842842842906</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.711011011011191</v>
+        <v>7.814514514514697</v>
       </c>
     </row>
     <row r="3">
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.8943973524909357, 10.32788577196798]</t>
+          <t>[3.9696442057360173, 10.252638918722898]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.980829063064071e-05</v>
+        <v>1.269586656560406e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.961658126128142e-05</v>
+        <v>2.539173313120813e-05</v>
       </c>
       <c r="O3" t="n">
         <v>2.056658253701426</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.441565217254269, 10.878995208964014]</t>
+          <t>[7.442869721577692, 10.87769070464059]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_9_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_9_sawtooth_0_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.1733355082536896, 10.13131644635259]</t>
+          <t>[3.135304680578729, 10.169347274027551]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0002166299970589591</v>
+        <v>0.0002520303628323894</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0002166299970589591</v>
+        <v>0.0002520303628323894</v>
       </c>
       <c r="O2" t="n">
         <v>-1.283052855520156</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.33929114767809, 11.262197667792744]</t>
+          <t>[7.3381950264748985, 11.263293788995934]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,35 +670,35 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.9696442057360173, 10.252638918722898]</t>
+          <t>[4.042413557520856, 10.17986956693806]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.269586656560406e-05</v>
+        <v>8.021807265112813e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>2.539173313120813e-05</v>
+        <v>1.604361453022563e-05</v>
       </c>
       <c r="O3" t="n">
         <v>2.056658253701426</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.5912371198362703, 2.5220793875665812]</t>
+          <t>[1.5786581702723472, 2.5346583371305043]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>4.884981308350689e-15</v>
       </c>
       <c r="S3" t="n">
         <v>9.160280213109141</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.442869721577692, 10.87769070464059]</t>
+          <t>[7.441835548737544, 10.878724877480739]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -711,10 +711,10 @@
         <v>15.32348348348357</v>
       </c>
       <c r="X3" t="n">
-        <v>13.63607607607615</v>
+        <v>13.59047047047054</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.01089089089099</v>
+        <v>17.05649649649659</v>
       </c>
     </row>
   </sheetData>
